--- a/biology/Médecine/Vésiculite/Vésiculite.xlsx
+++ b/biology/Médecine/Vésiculite/Vésiculite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9siculite</t>
+          <t>Vésiculite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 vésiculite, sur le Wiktionnaire
 En médecine, la vésiculite, ou spermatocystite, est une inflammation des vésicules séminales.
-C'est une infection d'une ou des deux vésicules séminales, qui provient généralement de la dissémination d'un germe microbien par reflux urinaire[1]. On en fait habituellement le diagnostic lors d'une consultation pour une gonorrhée ou pour une hémospermie.
+C'est une infection d'une ou des deux vésicules séminales, qui provient généralement de la dissémination d'un germe microbien par reflux urinaire. On en fait habituellement le diagnostic lors d'une consultation pour une gonorrhée ou pour une hémospermie.
 </t>
         </is>
       </c>
